--- a/docs/Schema Properties.xlsx
+++ b/docs/Schema Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpl365prod-my.sharepoint.com/personal/alicia_sanjurjo_barrio_jpl_nasa_gov/Documents/Desktop/Digital Twin Interoperability/HSML Schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1391" documentId="8_{E1F334BF-4C5B-49DC-BAF5-9771AD116ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC164124-7082-477B-9C09-9527F5997912}"/>
+  <xr:revisionPtr revIDLastSave="1859" documentId="8_{E1F334BF-4C5B-49DC-BAF5-9771AD116ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27ED294-84C1-4C4D-A4BE-C92702B01E9D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="826">
   <si>
     <t>Property</t>
   </si>
@@ -2937,6 +2937,75 @@
   </si>
   <si>
     <t>But have to add to examples, and modify them</t>
+  </si>
+  <si>
+    <t>include Entity</t>
+  </si>
+  <si>
+    <t>schema:HowTo</t>
+  </si>
+  <si>
+    <t>schema:</t>
+  </si>
+  <si>
+    <t>schema: for GovtBenefitsType</t>
+  </si>
+  <si>
+    <t>included Entity</t>
+  </si>
+  <si>
+    <t>inlcuded Activity</t>
+  </si>
+  <si>
+    <t>included Domain and Activity</t>
+  </si>
+  <si>
+    <t>included HSML Thing</t>
+  </si>
+  <si>
+    <t>included Hyperspace &amp; Geographic</t>
+  </si>
+  <si>
+    <t>included Entity &amp;HSML Thing</t>
+  </si>
+  <si>
+    <t>included HSML Organization &amp; Person</t>
+  </si>
+  <si>
+    <t>included Agent</t>
+  </si>
+  <si>
+    <t>included Geographic</t>
+  </si>
+  <si>
+    <t>included HSML Thing, Agent</t>
+  </si>
+  <si>
+    <t>included HSMLOrganization and Person</t>
+  </si>
+  <si>
+    <t>included HSML Organization</t>
+  </si>
+  <si>
+    <t>included Contract</t>
+  </si>
+  <si>
+    <t>include HSML Person</t>
+  </si>
+  <si>
+    <t>included HSML Person</t>
+  </si>
+  <si>
+    <t>included Domain</t>
+  </si>
+  <si>
+    <t>included Concept</t>
+  </si>
+  <si>
+    <t>included Geographic &amp; Hyperspace</t>
+  </si>
+  <si>
+    <t>included Agent &amp; HSML Thing</t>
   </si>
 </sst>
 </file>
@@ -2986,7 +3055,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3002,6 +3071,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3056,7 +3137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3108,12 +3189,15 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3415,10 +3499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3428,7 +3512,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3439,14 +3523,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3460,7 +3544,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3471,7 +3555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -3482,7 +3566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -3493,7 +3577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -3503,8 +3587,11 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F8" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -3514,8 +3601,11 @@
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3525,8 +3615,11 @@
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3537,7 +3630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -3547,8 +3640,11 @@
       <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F12" s="18" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -3559,7 +3655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -3569,8 +3665,11 @@
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="18" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -3581,12 +3680,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
@@ -3621,10 +3720,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC09856-3775-4346-9891-6FBF785C5664}">
-  <dimension ref="B2:D78"/>
+  <dimension ref="B2:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3634,7 +3733,7 @@
     <col min="4" max="4" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3645,14 +3744,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>563</v>
       </c>
@@ -3662,8 +3761,11 @@
       <c r="D4" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="F4" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>494</v>
       </c>
@@ -3673,8 +3775,11 @@
       <c r="D5" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F5" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>368</v>
       </c>
@@ -3684,8 +3789,11 @@
       <c r="D6" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F6" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>372</v>
       </c>
@@ -3695,8 +3803,11 @@
       <c r="D7" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F7" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>495</v>
       </c>
@@ -3706,8 +3817,11 @@
       <c r="D8" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F8" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>498</v>
       </c>
@@ -3717,8 +3831,11 @@
       <c r="D9" s="3" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F9" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
@@ -3728,8 +3845,11 @@
       <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F10" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>376</v>
       </c>
@@ -3740,7 +3860,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>382</v>
       </c>
@@ -3750,8 +3870,11 @@
       <c r="D12" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F12" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>390</v>
       </c>
@@ -3761,8 +3884,11 @@
       <c r="D13" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F13" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>499</v>
       </c>
@@ -3772,8 +3898,11 @@
       <c r="D14" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F14" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>500</v>
       </c>
@@ -3783,8 +3912,11 @@
       <c r="D15" s="3" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F15" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>502</v>
       </c>
@@ -3795,7 +3927,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>504</v>
       </c>
@@ -3805,8 +3937,11 @@
       <c r="D17" s="3" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F17" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>505</v>
       </c>
@@ -3816,8 +3951,11 @@
       <c r="D18" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F18" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>397</v>
       </c>
@@ -3828,7 +3966,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>399</v>
       </c>
@@ -3839,7 +3977,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>506</v>
       </c>
@@ -3849,8 +3987,11 @@
       <c r="D21" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="F21" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="116" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>508</v>
       </c>
@@ -3860,8 +4001,11 @@
       <c r="D22" s="3" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F22" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>509</v>
       </c>
@@ -3871,8 +4015,11 @@
       <c r="D23" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F23" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>403</v>
       </c>
@@ -3883,7 +4030,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>511</v>
       </c>
@@ -3893,8 +4040,11 @@
       <c r="D25" s="3" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F25" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>513</v>
       </c>
@@ -3905,7 +4055,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>515</v>
       </c>
@@ -3915,8 +4065,11 @@
       <c r="D27" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F27" s="18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>204</v>
       </c>
@@ -3926,8 +4079,11 @@
       <c r="D28" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F28" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>206</v>
       </c>
@@ -3937,8 +4093,11 @@
       <c r="D29" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F29" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>411</v>
       </c>
@@ -3949,7 +4108,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
@@ -3959,8 +4118,11 @@
       <c r="D31" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F31" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>413</v>
       </c>
@@ -3970,8 +4132,11 @@
       <c r="D32" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="261" x14ac:dyDescent="0.35">
+      <c r="F32" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="261" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>517</v>
       </c>
@@ -3982,7 +4147,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>518</v>
       </c>
@@ -3992,8 +4157,11 @@
       <c r="D34" s="3" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F34" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>521</v>
       </c>
@@ -4003,8 +4171,11 @@
       <c r="D35" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F35" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>81</v>
       </c>
@@ -4014,8 +4185,11 @@
       <c r="D36" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F36" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>419</v>
       </c>
@@ -4025,8 +4199,11 @@
       <c r="D37" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F37" s="18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>428</v>
       </c>
@@ -4036,8 +4213,11 @@
       <c r="D38" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F38" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>430</v>
       </c>
@@ -4048,7 +4228,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="232" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>524</v>
       </c>
@@ -4059,7 +4239,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>212</v>
       </c>
@@ -4069,8 +4249,11 @@
       <c r="D41" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F41" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>436</v>
       </c>
@@ -4080,8 +4263,11 @@
       <c r="D42" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F42" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>438</v>
       </c>
@@ -4091,8 +4277,11 @@
       <c r="D43" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F43" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>525</v>
       </c>
@@ -4103,7 +4292,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>527</v>
       </c>
@@ -4114,7 +4303,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>46</v>
       </c>
@@ -4124,8 +4313,11 @@
       <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F46" s="18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>529</v>
       </c>
@@ -4135,8 +4327,11 @@
       <c r="D47" s="3" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F47" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>439</v>
       </c>
@@ -4146,8 +4341,11 @@
       <c r="D48" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="F48" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>531</v>
       </c>
@@ -4157,8 +4355,11 @@
       <c r="D49" s="3" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>441</v>
       </c>
@@ -4168,8 +4369,11 @@
       <c r="D50" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F50" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>442</v>
       </c>
@@ -4180,7 +4384,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>532</v>
       </c>
@@ -4190,8 +4394,11 @@
       <c r="D52" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F52" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>535</v>
       </c>
@@ -4201,8 +4408,11 @@
       <c r="D53" s="3" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F53" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>537</v>
       </c>
@@ -4212,8 +4422,11 @@
       <c r="D54" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F54" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>448</v>
       </c>
@@ -4223,8 +4436,11 @@
       <c r="D55" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F55" s="18" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>538</v>
       </c>
@@ -4234,8 +4450,11 @@
       <c r="D56" s="3" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="F56" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="174" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>454</v>
       </c>
@@ -4245,8 +4464,11 @@
       <c r="D57" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F57" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>234</v>
       </c>
@@ -4256,8 +4478,11 @@
       <c r="D58" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F58" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>457</v>
       </c>
@@ -4267,8 +4492,11 @@
       <c r="D59" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F59" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>462</v>
       </c>
@@ -4278,8 +4506,11 @@
       <c r="D60" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F60" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>539</v>
       </c>
@@ -4290,7 +4521,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>250</v>
       </c>
@@ -4300,8 +4531,11 @@
       <c r="D62" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F62" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>541</v>
       </c>
@@ -4311,8 +4545,11 @@
       <c r="D63" s="3" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F63" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>466</v>
       </c>
@@ -4323,7 +4560,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="4" t="s">
         <v>468</v>
       </c>
@@ -4334,7 +4571,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>542</v>
       </c>
@@ -4344,8 +4581,11 @@
       <c r="D66" s="3" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F66" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="4" t="s">
         <v>470</v>
       </c>
@@ -4356,57 +4596,57 @@
         <v>471</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4421,10 +4661,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B17DB-CD6C-4105-B694-0ACF6ECEA359}">
-  <dimension ref="B2:D64"/>
+  <dimension ref="B2:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4434,7 +4674,7 @@
     <col min="4" max="4" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4445,14 +4685,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>366</v>
       </c>
@@ -4463,7 +4703,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>368</v>
       </c>
@@ -4473,8 +4713,11 @@
       <c r="D5" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F5" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>370</v>
       </c>
@@ -4484,8 +4727,11 @@
       <c r="D6" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F6" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>372</v>
       </c>
@@ -4495,8 +4741,11 @@
       <c r="D7" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F7" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>375</v>
       </c>
@@ -4506,8 +4755,11 @@
       <c r="D8" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F8" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>376</v>
       </c>
@@ -4518,7 +4770,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>378</v>
       </c>
@@ -4529,7 +4781,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>380</v>
       </c>
@@ -4539,8 +4791,11 @@
       <c r="D11" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F11" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>382</v>
       </c>
@@ -4550,8 +4805,11 @@
       <c r="D12" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F12" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>384</v>
       </c>
@@ -4562,7 +4820,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>386</v>
       </c>
@@ -4572,8 +4830,11 @@
       <c r="D14" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F14" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>388</v>
       </c>
@@ -4583,8 +4844,11 @@
       <c r="D15" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F15" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>390</v>
       </c>
@@ -4594,8 +4858,11 @@
       <c r="D16" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F16" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>393</v>
       </c>
@@ -4606,7 +4873,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>395</v>
       </c>
@@ -4616,8 +4883,11 @@
       <c r="D18" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F18" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>397</v>
       </c>
@@ -4628,7 +4898,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>399</v>
       </c>
@@ -4639,7 +4909,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>401</v>
       </c>
@@ -4650,7 +4920,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>403</v>
       </c>
@@ -4661,7 +4931,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>405</v>
       </c>
@@ -4671,8 +4941,11 @@
       <c r="D23" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F23" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>204</v>
       </c>
@@ -4682,8 +4955,11 @@
       <c r="D24" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F24" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>206</v>
       </c>
@@ -4693,8 +4969,11 @@
       <c r="D25" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>407</v>
       </c>
@@ -4704,8 +4983,11 @@
       <c r="D26" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F26" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>409</v>
       </c>
@@ -4716,7 +4998,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>411</v>
       </c>
@@ -4727,7 +5009,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
@@ -4737,8 +5019,11 @@
       <c r="D29" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F29" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>413</v>
       </c>
@@ -4748,8 +5033,11 @@
       <c r="D30" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F30" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>416</v>
       </c>
@@ -4759,8 +5047,11 @@
       <c r="D31" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F31" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
@@ -4770,8 +5061,11 @@
       <c r="D32" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F32" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>419</v>
       </c>
@@ -4781,8 +5075,11 @@
       <c r="D33" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F33" s="18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>308</v>
       </c>
@@ -4792,8 +5089,11 @@
       <c r="D34" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F34" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>422</v>
       </c>
@@ -4803,8 +5103,11 @@
       <c r="D35" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F35" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>424</v>
       </c>
@@ -4815,7 +5118,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>426</v>
       </c>
@@ -4826,7 +5129,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>428</v>
       </c>
@@ -4836,8 +5139,11 @@
       <c r="D38" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F38" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>430</v>
       </c>
@@ -4848,7 +5154,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>432</v>
       </c>
@@ -4858,8 +5164,11 @@
       <c r="D40" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F40" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>434</v>
       </c>
@@ -4869,8 +5178,11 @@
       <c r="D41" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F41" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>436</v>
       </c>
@@ -4880,8 +5192,11 @@
       <c r="D42" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F42" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>438</v>
       </c>
@@ -4891,8 +5206,11 @@
       <c r="D43" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F43" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>439</v>
       </c>
@@ -4902,8 +5220,11 @@
       <c r="D44" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F44" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>441</v>
       </c>
@@ -4913,8 +5234,11 @@
       <c r="D45" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F45" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>442</v>
       </c>
@@ -4925,7 +5249,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>444</v>
       </c>
@@ -4935,8 +5259,11 @@
       <c r="D47" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F47" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>446</v>
       </c>
@@ -4946,8 +5273,11 @@
       <c r="D48" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F48" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>448</v>
       </c>
@@ -4957,8 +5287,11 @@
       <c r="D49" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F49" s="18" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>450</v>
       </c>
@@ -4968,8 +5301,11 @@
       <c r="D50" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F50" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>452</v>
       </c>
@@ -4979,8 +5315,11 @@
       <c r="D51" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="F51" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="174" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>454</v>
       </c>
@@ -4990,8 +5329,11 @@
       <c r="D52" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F52" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>455</v>
       </c>
@@ -5001,8 +5343,11 @@
       <c r="D53" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F53" s="18" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>457</v>
       </c>
@@ -5012,8 +5357,11 @@
       <c r="D54" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F54" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>460</v>
       </c>
@@ -5023,8 +5371,11 @@
       <c r="D55" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F55" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>462</v>
       </c>
@@ -5034,8 +5385,11 @@
       <c r="D56" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F56" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>250</v>
       </c>
@@ -5045,8 +5399,11 @@
       <c r="D57" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F57" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>464</v>
       </c>
@@ -5056,8 +5413,11 @@
       <c r="D58" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F58" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>466</v>
       </c>
@@ -5068,7 +5428,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>468</v>
       </c>
@@ -5079,7 +5439,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>470</v>
       </c>
@@ -5090,7 +5450,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>473</v>
       </c>
@@ -5100,8 +5460,11 @@
       <c r="D62" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F62" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>475</v>
       </c>
@@ -5111,8 +5474,11 @@
       <c r="D63" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F63" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>477</v>
       </c>
@@ -5121,6 +5487,9 @@
       </c>
       <c r="D64" s="3" t="s">
         <v>478</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -5133,10 +5502,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EDCE13-0400-43E8-900F-BFFBBC4EE070}">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5146,7 +5515,7 @@
     <col min="4" max="4" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5157,14 +5526,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>382</v>
       </c>
@@ -5174,8 +5543,11 @@
       <c r="D4" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F4" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
@@ -5185,8 +5557,11 @@
       <c r="D5" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F5" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>613</v>
       </c>
@@ -5197,7 +5572,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>616</v>
       </c>
@@ -5207,8 +5582,11 @@
       <c r="D7" s="3" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F7" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>78</v>
       </c>
@@ -5218,8 +5596,11 @@
       <c r="D8" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>618</v>
       </c>
@@ -5229,8 +5610,11 @@
       <c r="D9" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="F9" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>621</v>
       </c>
@@ -5240,8 +5624,11 @@
       <c r="D10" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F10" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>308</v>
       </c>
@@ -5251,8 +5638,11 @@
       <c r="D11" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F11" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>212</v>
       </c>
@@ -5262,8 +5652,11 @@
       <c r="D12" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F12" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>529</v>
       </c>
@@ -5273,8 +5666,11 @@
       <c r="D13" s="3" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F13" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>623</v>
       </c>
@@ -5284,8 +5680,11 @@
       <c r="D14" s="3" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F14" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>219</v>
       </c>
@@ -5295,8 +5694,11 @@
       <c r="D15" s="3" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F15" s="18" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>626</v>
       </c>
@@ -5307,7 +5709,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>628</v>
       </c>
@@ -5318,7 +5720,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>630</v>
       </c>
@@ -5329,7 +5731,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>632</v>
       </c>
@@ -5340,7 +5742,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>244</v>
       </c>
@@ -5350,8 +5752,11 @@
       <c r="D20" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F20" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>473</v>
       </c>
@@ -5361,8 +5766,11 @@
       <c r="D21" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F21" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>320</v>
       </c>
@@ -5372,15 +5780,18 @@
       <c r="D22" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="17" t="s">
+      <c r="F22" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>638</v>
       </c>
@@ -5391,7 +5802,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>736</v>
       </c>
@@ -5402,17 +5813,17 @@
         <v>637</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5430,7 +5841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C17929-D79D-43D8-8569-28DB1A88576D}">
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5453,11 +5864,11 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -5615,10 +6026,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644112C0-7946-41CE-BC58-0BA5081A6081}">
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5628,7 +6039,7 @@
     <col min="4" max="4" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5639,14 +6050,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>769</v>
       </c>
@@ -5656,8 +6067,11 @@
       <c r="D4" s="3" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F4" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>770</v>
       </c>
@@ -5668,7 +6082,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>772</v>
       </c>
@@ -5679,7 +6093,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>773</v>
       </c>
@@ -5690,7 +6104,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>305</v>
       </c>
@@ -5700,8 +6114,11 @@
       <c r="D8" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>775</v>
       </c>
@@ -5712,7 +6129,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
@@ -5723,7 +6140,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>777</v>
       </c>
@@ -5734,7 +6151,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>778</v>
       </c>
@@ -5745,7 +6162,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>780</v>
       </c>
@@ -5755,8 +6172,11 @@
       <c r="D13" s="9" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F13" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>781</v>
       </c>
@@ -5767,7 +6187,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>783</v>
       </c>
@@ -5778,7 +6198,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>60</v>
       </c>
@@ -5790,11 +6210,11 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="2:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
@@ -5886,7 +6306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A306DC4B-3492-4354-95C4-B10AFB8B778E}">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -7064,10 +7484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9380B144-B454-4CF2-809E-56D588102B1A}">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="53" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A9" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7077,7 +7497,7 @@
     <col min="4" max="4" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7088,14 +7508,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
@@ -7105,8 +7525,11 @@
       <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="174" x14ac:dyDescent="0.35">
+      <c r="E4" s="17" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="174" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
@@ -7116,8 +7539,9 @@
       <c r="D5" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
@@ -7127,8 +7551,11 @@
       <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E6" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
@@ -7138,8 +7565,11 @@
       <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="18" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="77" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
@@ -7149,8 +7579,11 @@
       <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
@@ -7160,8 +7593,11 @@
       <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E9" s="18" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
@@ -7171,8 +7607,11 @@
       <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E10" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
@@ -7182,8 +7621,11 @@
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E11" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
@@ -7193,8 +7635,11 @@
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="174" x14ac:dyDescent="0.35">
+      <c r="E12" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="174" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>60</v>
       </c>
@@ -7204,8 +7649,9 @@
       <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
@@ -7218,15 +7664,18 @@
       <c r="E14" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
+      <c r="F14" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>738</v>
       </c>
@@ -7364,10 +7813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D61BA7-4E68-489C-8413-EDAD445E74F7}">
-  <dimension ref="B2:H28"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A7" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7377,7 +7826,7 @@
     <col min="4" max="4" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7388,14 +7837,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
@@ -7408,8 +7857,11 @@
       <c r="E4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="I4" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7422,8 +7874,11 @@
       <c r="E5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="I5" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
@@ -7436,8 +7891,11 @@
       <c r="E6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="I6" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
@@ -7450,15 +7908,18 @@
       <c r="E7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+      <c r="I7" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>101</v>
       </c>
@@ -7471,8 +7932,11 @@
       <c r="E9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="I9" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>102</v>
       </c>
@@ -7485,8 +7949,11 @@
       <c r="E10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I10" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>104</v>
       </c>
@@ -7499,8 +7966,11 @@
       <c r="E11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="I11" s="18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>116</v>
       </c>
@@ -7510,8 +7980,11 @@
       <c r="D12" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I12" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>105</v>
       </c>
@@ -7524,8 +7997,11 @@
       <c r="E13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I13" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>103</v>
       </c>
@@ -7538,15 +8014,18 @@
       <c r="E14" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
+      <c r="I14" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
@@ -7556,13 +8035,16 @@
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="I16" s="18" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
@@ -7576,11 +8058,11 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
@@ -7700,10 +8182,265 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEEAD56-2F49-4A44-B019-6F5977D1D77F}">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB488D84-BAB9-4F9F-8B0A-BED62AD1ECA3}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7725,361 +8462,148 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
-        <v>91</v>
+        <v>706</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>750</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>709</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>700</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B13:D13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB488D84-BAB9-4F9F-8B0A-BED62AD1ECA3}">
-  <dimension ref="B2:D17"/>
-  <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
         <v>708</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -8089,7 +8613,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>151</v>
       </c>
@@ -8122,10 +8646,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC08D55C-D7F3-43D7-B4B0-32A213FABB97}">
-  <dimension ref="B2:E114"/>
+  <dimension ref="B2:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A54" zoomScale="71" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8135,7 +8659,7 @@
     <col min="4" max="4" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8146,14 +8670,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8163,8 +8687,11 @@
       <c r="D4" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F4" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>153</v>
       </c>
@@ -8175,7 +8702,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>155</v>
       </c>
@@ -8185,8 +8712,11 @@
       <c r="D6" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="F6" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>158</v>
       </c>
@@ -8196,8 +8726,11 @@
       <c r="D7" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F7" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>159</v>
       </c>
@@ -8207,8 +8740,11 @@
       <c r="D8" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -8218,8 +8754,11 @@
       <c r="D9" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="F9" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>162</v>
       </c>
@@ -8229,8 +8768,11 @@
       <c r="D10" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F10" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>164</v>
       </c>
@@ -8240,8 +8782,11 @@
       <c r="D11" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="F11" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="174" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>167</v>
       </c>
@@ -8252,7 +8797,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>168</v>
       </c>
@@ -8262,8 +8807,11 @@
       <c r="D13" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F13" s="18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>171</v>
       </c>
@@ -8273,8 +8821,9 @@
       <c r="D14" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>173</v>
       </c>
@@ -8284,8 +8833,11 @@
       <c r="D15" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F15" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>175</v>
       </c>
@@ -8295,8 +8847,11 @@
       <c r="D16" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F16" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>177</v>
       </c>
@@ -8307,7 +8862,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>179</v>
       </c>
@@ -8318,7 +8873,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>181</v>
       </c>
@@ -8328,8 +8883,11 @@
       <c r="D19" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="F19" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="275.5" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>183</v>
       </c>
@@ -8339,8 +8897,11 @@
       <c r="D20" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F20" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>102</v>
       </c>
@@ -8350,8 +8911,11 @@
       <c r="D21" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F21" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>189</v>
       </c>
@@ -8362,7 +8926,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>191</v>
       </c>
@@ -8375,8 +8939,9 @@
       <c r="E23" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>193</v>
       </c>
@@ -8389,8 +8954,9 @@
       <c r="E24" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>195</v>
       </c>
@@ -8400,8 +8966,9 @@
       <c r="D25" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>196</v>
       </c>
@@ -8411,8 +8978,11 @@
       <c r="D26" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F26" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>199</v>
       </c>
@@ -8422,8 +8992,11 @@
       <c r="D27" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F27" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>201</v>
       </c>
@@ -8433,8 +9006,11 @@
       <c r="D28" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="F28" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>202</v>
       </c>
@@ -8448,7 +9024,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>203</v>
       </c>
@@ -8458,8 +9034,9 @@
       <c r="D30" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>204</v>
       </c>
@@ -8469,8 +9046,11 @@
       <c r="D31" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F31" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>206</v>
       </c>
@@ -8480,8 +9060,11 @@
       <c r="D32" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F32" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>104</v>
       </c>
@@ -8491,8 +9074,11 @@
       <c r="D33" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="F33" s="18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>116</v>
       </c>
@@ -8502,8 +9088,11 @@
       <c r="D34" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F34" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>210</v>
       </c>
@@ -8513,8 +9102,11 @@
       <c r="D35" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F35" s="18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>105</v>
       </c>
@@ -8524,8 +9116,11 @@
       <c r="D36" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F36" s="18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>212</v>
       </c>
@@ -8535,8 +9130,11 @@
       <c r="D37" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F37" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>214</v>
       </c>
@@ -8546,8 +9144,11 @@
       <c r="D38" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F38" s="18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>216</v>
       </c>
@@ -8557,8 +9158,11 @@
       <c r="D39" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F39" s="18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>103</v>
       </c>
@@ -8568,8 +9172,11 @@
       <c r="D40" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="F40" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="333.5" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>218</v>
       </c>
@@ -8579,8 +9186,11 @@
       <c r="D41" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F41" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>219</v>
       </c>
@@ -8590,8 +9200,11 @@
       <c r="D42" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F42" s="18" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>221</v>
       </c>
@@ -8601,8 +9214,11 @@
       <c r="D43" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="F43" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>86</v>
       </c>
@@ -8612,8 +9228,11 @@
       <c r="D44" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F44" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>223</v>
       </c>
@@ -8624,7 +9243,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>225</v>
       </c>
@@ -8634,8 +9253,11 @@
       <c r="D46" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="F46" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>56</v>
       </c>
@@ -8645,8 +9267,11 @@
       <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F47" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>228</v>
       </c>
@@ -8656,8 +9281,11 @@
       <c r="D48" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F48" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>230</v>
       </c>
@@ -8667,8 +9295,11 @@
       <c r="D49" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F49" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>232</v>
       </c>
@@ -8678,8 +9309,11 @@
       <c r="D50" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="F50" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>237</v>
       </c>
@@ -8690,7 +9324,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>238</v>
       </c>
@@ -8700,8 +9334,9 @@
       <c r="D52" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>240</v>
       </c>
@@ -8711,8 +9346,11 @@
       <c r="D53" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="F53" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="174" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>242</v>
       </c>
@@ -8722,8 +9360,11 @@
       <c r="D54" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="F54" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>244</v>
       </c>
@@ -8733,8 +9374,11 @@
       <c r="D55" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F55" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>245</v>
       </c>
@@ -8744,8 +9388,11 @@
       <c r="D56" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F56" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>247</v>
       </c>
@@ -8755,8 +9402,11 @@
       <c r="D57" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="F57" s="18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>248</v>
       </c>
@@ -8766,8 +9416,11 @@
       <c r="D58" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F58" s="18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>250</v>
       </c>
@@ -8777,8 +9430,11 @@
       <c r="D59" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F59" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>252</v>
       </c>
@@ -8788,8 +9444,9 @@
       <c r="D60" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="2:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>253</v>
       </c>
@@ -8799,8 +9456,9 @@
       <c r="D61" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>254</v>
       </c>
@@ -8811,7 +9469,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>256</v>
       </c>
@@ -8821,8 +9479,11 @@
       <c r="D63" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="F63" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="333.5" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>258</v>
       </c>
@@ -8832,8 +9493,11 @@
       <c r="D64" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F64" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B65" s="4" t="s">
         <v>259</v>
       </c>
@@ -8843,8 +9507,9 @@
       <c r="D65" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>261</v>
       </c>
@@ -8854,15 +9519,18 @@
       <c r="D66" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="17" t="s">
+      <c r="F66" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="2:4" ht="232" x14ac:dyDescent="0.35">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="2:6" ht="232" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>331</v>
       </c>
@@ -8872,15 +9540,18 @@
       <c r="D68" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="17" t="s">
+      <c r="F68" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
         <v>711</v>
       </c>
@@ -8891,7 +9562,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">
         <v>716</v>
       </c>
@@ -8902,7 +9573,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B72" s="4" t="s">
         <v>799</v>
       </c>
@@ -8913,7 +9584,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
         <v>714</v>
       </c>
@@ -8924,7 +9595,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B74" s="4" t="s">
         <v>713</v>
       </c>
@@ -8935,7 +9606,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
         <v>636</v>
       </c>
@@ -8946,7 +9617,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
         <v>651</v>
       </c>
@@ -8957,16 +9628,16 @@
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -9125,10 +9796,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BADB1F-254B-4B93-8938-752CBBBD7E1D}">
-  <dimension ref="B2:E38"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:D38"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9138,7 +9809,7 @@
     <col min="4" max="4" width="41.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9149,14 +9820,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>292</v>
       </c>
@@ -9167,14 +9838,14 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>296</v>
       </c>
@@ -9184,8 +9855,11 @@
       <c r="D6" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>299</v>
       </c>
@@ -9196,7 +9870,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>301</v>
       </c>
@@ -9207,7 +9881,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>303</v>
       </c>
@@ -9221,7 +9895,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>305</v>
       </c>
@@ -9231,8 +9905,11 @@
       <c r="D10" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F10" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>307</v>
       </c>
@@ -9243,7 +9920,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>202</v>
       </c>
@@ -9254,7 +9931,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="203" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
@@ -9265,7 +9942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>308</v>
       </c>
@@ -9275,8 +9952,11 @@
       <c r="D14" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="F14" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>310</v>
       </c>
@@ -9286,8 +9966,11 @@
       <c r="D15" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F15" s="18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>208</v>
       </c>
@@ -9297,8 +9980,11 @@
       <c r="D16" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F16" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>311</v>
       </c>
@@ -9309,7 +9995,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>313</v>
       </c>
@@ -9319,8 +10005,11 @@
       <c r="D18" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F18" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>315</v>
       </c>
@@ -9330,8 +10019,11 @@
       <c r="D19" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="F19" s="18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>317</v>
       </c>
@@ -9341,8 +10033,11 @@
       <c r="D20" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="F20" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>60</v>
       </c>
@@ -9353,7 +10048,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>318</v>
       </c>
@@ -9364,7 +10059,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>320</v>
       </c>
@@ -9374,15 +10069,18 @@
       <c r="D23" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="18" t="s">
+      <c r="F23" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>565</v>
       </c>
@@ -9393,7 +10091,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>567</v>
       </c>
@@ -9404,7 +10102,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>569</v>
       </c>
@@ -9415,7 +10113,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>571</v>
       </c>
@@ -9426,7 +10124,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>573</v>
       </c>
@@ -9437,7 +10135,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>575</v>
       </c>
@@ -9448,7 +10146,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>577</v>
       </c>
@@ -9459,7 +10157,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>579</v>
       </c>
@@ -9470,7 +10168,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>581</v>
       </c>
@@ -9481,7 +10179,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>586</v>
       </c>
@@ -9492,7 +10190,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>583</v>
       </c>
@@ -9502,15 +10200,18 @@
       <c r="D35" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="17" t="s">
+      <c r="F35" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>721</v>
       </c>
@@ -9521,7 +10222,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>722</v>
       </c>
@@ -9545,147 +10246,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8518DAB3-3A8F-4C01-A98B-C501E5272B2B}">
-  <dimension ref="B2:E12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" t="s">
-        <v>605</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F6BD75-3331-438E-9FF0-6491826DFBB0}">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9707,83 +10271,229 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>607</v>
+        <v>368</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>611</v>
+        <v>479</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F6BD75-3331-438E-9FF0-6491826DFBB0}">
+  <dimension ref="B2:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F4" t="s">
+        <v>612</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>

--- a/docs/Schema Properties.xlsx
+++ b/docs/Schema Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpl365prod-my.sharepoint.com/personal/alicia_sanjurjo_barrio_jpl_nasa_gov/Documents/Desktop/Digital Twin Interoperability/HSML Schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1859" documentId="8_{E1F334BF-4C5B-49DC-BAF5-9771AD116ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27ED294-84C1-4C4D-A4BE-C92702B01E9D}"/>
+  <xr:revisionPtr revIDLastSave="1860" documentId="8_{E1F334BF-4C5B-49DC-BAF5-9771AD116ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBD129DA-9171-4294-9AA3-F9D9E13A4F5F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -3137,7 +3137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3197,7 +3197,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6028,7 +6027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644112C0-7946-41CE-BC58-0BA5081A6081}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -7539,7 +7538,6 @@
       <c r="D5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -7649,7 +7647,6 @@
       <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
@@ -8439,8 +8436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB488D84-BAB9-4F9F-8B0A-BED62AD1ECA3}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8479,7 +8476,7 @@
         <v>146</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
@@ -8534,7 +8531,6 @@
       <c r="D8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
@@ -8560,7 +8556,6 @@
       <c r="D10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
@@ -8821,7 +8816,6 @@
       <c r="D14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
@@ -8939,7 +8933,6 @@
       <c r="E23" t="s">
         <v>363</v>
       </c>
-      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
@@ -8954,7 +8947,6 @@
       <c r="E24" t="s">
         <v>363</v>
       </c>
-      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
@@ -8966,7 +8958,6 @@
       <c r="D25" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
@@ -9034,7 +9025,6 @@
       <c r="D30" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
@@ -9334,7 +9324,6 @@
       <c r="D52" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
@@ -9444,7 +9433,6 @@
       <c r="D60" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F60" s="21"/>
     </row>
     <row r="61" spans="2:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
@@ -9456,7 +9444,6 @@
       <c r="D61" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F61" s="21"/>
     </row>
     <row r="62" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
@@ -9507,7 +9494,6 @@
       <c r="D65" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F65" s="21"/>
     </row>
     <row r="66" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
@@ -10513,15 +10499,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA26215CC14A384E952D7804EF3A35C6" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3fe7b726a68d28e34c1e775eaa3d86db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0e5ba82-9edd-4543-a5cd-cb26bbb31b7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b628dd1062c29b46bae2ec7324e32ac9" ns3:_="">
     <xsd:import namespace="e0e5ba82-9edd-4543-a5cd-cb26bbb31b7f"/>
@@ -10671,6 +10648,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D00A95F-DBEE-45E3-8E56-9048D2CE361C}">
   <ds:schemaRefs>
@@ -10688,14 +10674,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94445652-C359-4B47-A452-B44C34EEF9E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{929E7DC8-42F3-4047-8573-C4BD52EF6887}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10711,4 +10689,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94445652-C359-4B47-A452-B44C34EEF9E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Schema Properties.xlsx
+++ b/docs/Schema Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpl365prod-my.sharepoint.com/personal/alicia_sanjurjo_barrio_jpl_nasa_gov/Documents/Desktop/Digital Twin Interoperability/HSML Schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1860" documentId="8_{E1F334BF-4C5B-49DC-BAF5-9771AD116ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBD129DA-9171-4294-9AA3-F9D9E13A4F5F}"/>
+  <xr:revisionPtr revIDLastSave="1867" documentId="8_{E1F334BF-4C5B-49DC-BAF5-9771AD116ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D87A891E-166F-4A27-8CE7-517F58397B13}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="827">
   <si>
     <t>Property</t>
   </si>
@@ -3006,6 +3006,9 @@
   </si>
   <si>
     <t>included Agent &amp; HSML Thing</t>
+  </si>
+  <si>
+    <t>Specifies the Domain(s) (Agent, Organization, Person…) that are authorized to access this Domain.</t>
   </si>
 </sst>
 </file>
@@ -3137,7 +3140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3197,6 +3200,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8436,7 +8440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB488D84-BAB9-4F9F-8B0A-BED62AD1ECA3}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -8643,8 +8647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC08D55C-D7F3-43D7-B4B0-32A213FABB97}">
   <dimension ref="B2:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="71" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9542,11 +9546,12 @@
         <v>711</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>696</v>
+        <v>347</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>717</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">

--- a/docs/Schema Properties.xlsx
+++ b/docs/Schema Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpl365prod-my.sharepoint.com/personal/alicia_sanjurjo_barrio_jpl_nasa_gov/Documents/Desktop/Digital Twin Interoperability/HSML Schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1867" documentId="8_{E1F334BF-4C5B-49DC-BAF5-9771AD116ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D87A891E-166F-4A27-8CE7-517F58397B13}"/>
+  <xr:revisionPtr revIDLastSave="1950" documentId="8_{E1F334BF-4C5B-49DC-BAF5-9771AD116ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD5D910-E936-4066-94E7-A8750AEA40C8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="831">
   <si>
     <t>Property</t>
   </si>
@@ -3009,6 +3009,18 @@
   </si>
   <si>
     <t>Specifies the Domain(s) (Agent, Organization, Person…) that are authorized to access this Domain.</t>
+  </si>
+  <si>
+    <t>rotationWheels</t>
+  </si>
+  <si>
+    <t>Set containing the orientation of the four wheels of a rover or similar object, defined as LF, LR, RF, RR.</t>
+  </si>
+  <si>
+    <t>inControl</t>
+  </si>
+  <si>
+    <t>Indicates if the Agent is in control of the physics simulation during the interaction with another Agent. Allowed values are true or false.</t>
   </si>
 </sst>
 </file>
@@ -3505,7 +3517,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3690,7 +3702,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>671</v>
       </c>
@@ -3700,8 +3712,9 @@
       <c r="D17" s="3" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>800</v>
       </c>
@@ -3725,7 +3738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC09856-3775-4346-9891-6FBF785C5664}">
   <dimension ref="B2:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
@@ -4666,7 +4679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B17DB-CD6C-4105-B694-0ACF6ECEA359}">
   <dimension ref="B2:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -5508,7 +5521,7 @@
   <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5815,6 +5828,7 @@
       <c r="D25" s="3" t="s">
         <v>637</v>
       </c>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
@@ -5842,10 +5856,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C17929-D79D-43D8-8569-28DB1A88576D}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5855,7 +5869,7 @@
     <col min="4" max="4" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5866,14 +5880,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>641</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>642</v>
       </c>
@@ -5884,7 +5898,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
@@ -5898,7 +5912,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>714</v>
       </c>
@@ -5909,7 +5923,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>223</v>
       </c>
@@ -5920,7 +5934,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>645</v>
       </c>
@@ -5934,7 +5948,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>650</v>
       </c>
@@ -5945,7 +5959,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>648</v>
       </c>
@@ -5959,7 +5973,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>649</v>
       </c>
@@ -5973,7 +5987,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>651</v>
       </c>
@@ -5983,23 +5997,24 @@
       <c r="D12" s="3" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6031,7 +6046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644112C0-7946-41CE-BC58-0BA5081A6081}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -6309,7 +6324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A306DC4B-3492-4354-95C4-B10AFB8B778E}">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -7487,10 +7502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9380B144-B454-4CF2-809E-56D588102B1A}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7500,7 +7515,7 @@
     <col min="4" max="4" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7511,14 +7526,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
@@ -7532,7 +7547,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="174" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
@@ -7543,7 +7558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
@@ -7557,7 +7572,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
@@ -7571,7 +7586,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="77" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
@@ -7585,7 +7600,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
@@ -7599,7 +7614,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
@@ -7613,7 +7628,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
@@ -7627,7 +7642,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
@@ -7641,7 +7656,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="174" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>60</v>
       </c>
@@ -7652,7 +7667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
@@ -7669,14 +7684,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>673</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>738</v>
       </c>
@@ -7686,8 +7701,9 @@
       <c r="D16" s="3" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>737</v>
       </c>
@@ -7698,7 +7714,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>674</v>
       </c>
@@ -7712,7 +7728,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>687</v>
       </c>
@@ -7726,7 +7742,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>693</v>
       </c>
@@ -7737,7 +7753,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>677</v>
       </c>
@@ -7748,7 +7764,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>675</v>
       </c>
@@ -7759,7 +7775,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>684</v>
       </c>
@@ -7770,7 +7786,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>695</v>
       </c>
@@ -7781,7 +7797,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>679</v>
       </c>
@@ -7791,8 +7807,9 @@
       <c r="D25" s="3" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>698</v>
       </c>
@@ -7817,7 +7834,7 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8040,14 +8057,14 @@
         <v>811</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>346</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>336</v>
       </c>
@@ -8058,14 +8075,14 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>335</v>
       </c>
@@ -8075,8 +8092,9 @@
       <c r="D20" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>343</v>
       </c>
@@ -8087,7 +8105,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>744</v>
       </c>
@@ -8103,7 +8121,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
@@ -8116,7 +8134,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>339</v>
       </c>
@@ -8129,7 +8147,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>341</v>
       </c>
@@ -8141,8 +8159,9 @@
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="2:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>345</v>
       </c>
@@ -8155,14 +8174,14 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -8185,8 +8204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEEAD56-2F49-4A44-B019-6F5977D1D77F}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8405,7 +8424,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>701</v>
       </c>
@@ -8415,8 +8434,9 @@
       <c r="D17" s="3" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>703</v>
       </c>
@@ -8440,8 +8460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB488D84-BAB9-4F9F-8B0A-BED62AD1ECA3}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8645,10 +8665,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC08D55C-D7F3-43D7-B4B0-32A213FABB97}">
-  <dimension ref="B2:F114"/>
+  <dimension ref="B2:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView topLeftCell="A68" zoomScale="71" workbookViewId="0">
+      <selection activeCell="F75" sqref="F74:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9575,7 +9595,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
         <v>714</v>
       </c>
@@ -9588,45 +9608,66 @@
     </row>
     <row r="74" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B74" s="4" t="s">
-        <v>713</v>
+        <v>223</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>647</v>
+        <v>332</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>719</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B77" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B78" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="4"/>
+      <c r="F78" s="21"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="4"/>
@@ -9635,8 +9676,6 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="4"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="4"/>
@@ -9658,6 +9697,8 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" s="4"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" s="4"/>
@@ -9715,7 +9756,6 @@
       <c r="D99" s="3"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B100" s="4"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
@@ -9770,10 +9810,6 @@
     <row r="113" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9787,10 +9823,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BADB1F-254B-4B93-8938-752CBBBD7E1D}">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10202,16 +10238,17 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
     </row>
-    <row r="37" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
-        <v>721</v>
+        <v>829</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>723</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
@@ -10223,6 +10260,29 @@
       <c r="D38" s="9" t="s">
         <v>724</v>
       </c>
+    </row>
+    <row r="39" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="F40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10504,6 +10564,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA26215CC14A384E952D7804EF3A35C6" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3fe7b726a68d28e34c1e775eaa3d86db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0e5ba82-9edd-4543-a5cd-cb26bbb31b7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b628dd1062c29b46bae2ec7324e32ac9" ns3:_="">
     <xsd:import namespace="e0e5ba82-9edd-4543-a5cd-cb26bbb31b7f"/>
@@ -10653,15 +10722,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D00A95F-DBEE-45E3-8E56-9048D2CE361C}">
   <ds:schemaRefs>
@@ -10679,6 +10739,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94445652-C359-4B47-A452-B44C34EEF9E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{929E7DC8-42F3-4047-8573-C4BD52EF6887}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10694,12 +10762,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94445652-C359-4B47-A452-B44C34EEF9E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Schema Properties.xlsx
+++ b/docs/Schema Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpl365prod-my.sharepoint.com/personal/alicia_sanjurjo_barrio_jpl_nasa_gov/Documents/Desktop/Digital Twin Interoperability/HSML Schema/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowele/Documents/Documents - Rowel’s MacBook Air/MoonWalker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1950" documentId="8_{E1F334BF-4C5B-49DC-BAF5-9771AD116ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD5D910-E936-4066-94E7-A8750AEA40C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8670257C-BF6E-7341-8BE4-802BE2BB9222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="680" windowWidth="27320" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="835">
   <si>
     <t>Property</t>
   </si>
@@ -3021,6 +3021,18 @@
   </si>
   <si>
     <t>Indicates if the Agent is in control of the physics simulation during the interaction with another Agent. Allowed values are true or false.</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>Mass of agent in kilograms (kg)</t>
+  </si>
+  <si>
+    <t>massUnit</t>
+  </si>
+  <si>
+    <t>Unit used for mass values; default: Kilograms</t>
   </si>
 </sst>
 </file>
@@ -3152,7 +3164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3212,7 +3224,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3245,10 +3256,6 @@
     </a>
   </bag>
 </FeaturePropertyBags>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3514,20 +3521,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="49.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3538,14 +3545,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3559,7 +3566,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3570,7 +3577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -3581,7 +3588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -3606,7 +3613,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -3620,7 +3627,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3634,7 +3641,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3645,7 +3652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -3670,7 +3677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -3695,14 +3702,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>670</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>671</v>
       </c>
@@ -3712,9 +3719,8 @@
       <c r="D17" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>800</v>
       </c>
@@ -3723,6 +3729,17 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>801</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -3742,14 +3759,14 @@
       <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3760,14 +3777,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>562</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>563</v>
       </c>
@@ -3781,7 +3798,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>494</v>
       </c>
@@ -3795,7 +3812,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>368</v>
       </c>
@@ -3809,7 +3826,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>372</v>
       </c>
@@ -3823,7 +3840,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>495</v>
       </c>
@@ -3837,7 +3854,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>498</v>
       </c>
@@ -3851,7 +3868,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
@@ -3865,7 +3882,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>376</v>
       </c>
@@ -3876,7 +3893,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>382</v>
       </c>
@@ -3890,7 +3907,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>390</v>
       </c>
@@ -3904,7 +3921,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>499</v>
       </c>
@@ -3918,7 +3935,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>500</v>
       </c>
@@ -3932,7 +3949,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>502</v>
       </c>
@@ -3943,7 +3960,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>504</v>
       </c>
@@ -3957,7 +3974,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>505</v>
       </c>
@@ -3971,7 +3988,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>397</v>
       </c>
@@ -3982,7 +3999,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>399</v>
       </c>
@@ -3993,7 +4010,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>506</v>
       </c>
@@ -4007,7 +4024,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="128" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>508</v>
       </c>
@@ -4021,7 +4038,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>509</v>
       </c>
@@ -4035,7 +4052,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>403</v>
       </c>
@@ -4046,7 +4063,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>511</v>
       </c>
@@ -4060,7 +4077,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>513</v>
       </c>
@@ -4071,7 +4088,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>515</v>
       </c>
@@ -4085,7 +4102,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>204</v>
       </c>
@@ -4099,7 +4116,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>206</v>
       </c>
@@ -4113,7 +4130,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>411</v>
       </c>
@@ -4124,7 +4141,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
@@ -4138,7 +4155,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>413</v>
       </c>
@@ -4152,7 +4169,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="261" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="224" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>517</v>
       </c>
@@ -4163,7 +4180,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>518</v>
       </c>
@@ -4177,7 +4194,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>521</v>
       </c>
@@ -4191,7 +4208,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>81</v>
       </c>
@@ -4205,7 +4222,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>419</v>
       </c>
@@ -4219,7 +4236,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>428</v>
       </c>
@@ -4233,7 +4250,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>430</v>
       </c>
@@ -4244,7 +4261,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="232" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="240" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>524</v>
       </c>
@@ -4255,7 +4272,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>212</v>
       </c>
@@ -4269,7 +4286,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>436</v>
       </c>
@@ -4283,7 +4300,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>438</v>
       </c>
@@ -4297,7 +4314,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>525</v>
       </c>
@@ -4308,7 +4325,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>527</v>
       </c>
@@ -4319,7 +4336,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>46</v>
       </c>
@@ -4333,7 +4350,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>529</v>
       </c>
@@ -4347,7 +4364,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>439</v>
       </c>
@@ -4361,7 +4378,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>531</v>
       </c>
@@ -4375,7 +4392,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>441</v>
       </c>
@@ -4389,7 +4406,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>442</v>
       </c>
@@ -4400,7 +4417,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>532</v>
       </c>
@@ -4414,7 +4431,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>535</v>
       </c>
@@ -4428,7 +4445,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" ht="96" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>537</v>
       </c>
@@ -4442,7 +4459,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>448</v>
       </c>
@@ -4456,7 +4473,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>538</v>
       </c>
@@ -4470,7 +4487,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" ht="176" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>454</v>
       </c>
@@ -4484,7 +4501,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>234</v>
       </c>
@@ -4498,7 +4515,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>457</v>
       </c>
@@ -4512,7 +4529,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>462</v>
       </c>
@@ -4526,7 +4543,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>539</v>
       </c>
@@ -4537,7 +4554,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>250</v>
       </c>
@@ -4551,7 +4568,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>541</v>
       </c>
@@ -4565,7 +4582,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>466</v>
       </c>
@@ -4576,7 +4593,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>468</v>
       </c>
@@ -4587,7 +4604,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>542</v>
       </c>
@@ -4601,7 +4618,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>470</v>
       </c>
@@ -4612,57 +4629,57 @@
         <v>471</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4683,14 +4700,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4701,14 +4718,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>492</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>366</v>
       </c>
@@ -4719,7 +4736,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>368</v>
       </c>
@@ -4733,7 +4750,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>370</v>
       </c>
@@ -4747,7 +4764,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>372</v>
       </c>
@@ -4761,7 +4778,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>375</v>
       </c>
@@ -4775,7 +4792,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>376</v>
       </c>
@@ -4786,7 +4803,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>378</v>
       </c>
@@ -4797,7 +4814,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>380</v>
       </c>
@@ -4811,7 +4828,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>382</v>
       </c>
@@ -4825,7 +4842,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>384</v>
       </c>
@@ -4836,7 +4853,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>386</v>
       </c>
@@ -4850,7 +4867,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>388</v>
       </c>
@@ -4864,7 +4881,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>390</v>
       </c>
@@ -4878,7 +4895,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>393</v>
       </c>
@@ -4889,7 +4906,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>395</v>
       </c>
@@ -4903,7 +4920,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>397</v>
       </c>
@@ -4914,7 +4931,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>399</v>
       </c>
@@ -4925,7 +4942,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>401</v>
       </c>
@@ -4936,7 +4953,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>403</v>
       </c>
@@ -4947,7 +4964,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>405</v>
       </c>
@@ -4961,7 +4978,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>204</v>
       </c>
@@ -4975,7 +4992,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>206</v>
       </c>
@@ -4989,7 +5006,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="160" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>407</v>
       </c>
@@ -5003,7 +5020,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>409</v>
       </c>
@@ -5014,7 +5031,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>411</v>
       </c>
@@ -5025,7 +5042,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
@@ -5039,7 +5056,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>413</v>
       </c>
@@ -5053,7 +5070,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>416</v>
       </c>
@@ -5067,7 +5084,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
@@ -5081,7 +5098,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>419</v>
       </c>
@@ -5095,7 +5112,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>308</v>
       </c>
@@ -5109,7 +5126,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>422</v>
       </c>
@@ -5123,7 +5140,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>424</v>
       </c>
@@ -5134,7 +5151,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>426</v>
       </c>
@@ -5145,7 +5162,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>428</v>
       </c>
@@ -5159,7 +5176,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>430</v>
       </c>
@@ -5170,7 +5187,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>432</v>
       </c>
@@ -5184,7 +5201,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>434</v>
       </c>
@@ -5198,7 +5215,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>436</v>
       </c>
@@ -5212,7 +5229,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>438</v>
       </c>
@@ -5226,7 +5243,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>439</v>
       </c>
@@ -5240,7 +5257,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>441</v>
       </c>
@@ -5254,7 +5271,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>442</v>
       </c>
@@ -5265,7 +5282,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>444</v>
       </c>
@@ -5279,7 +5296,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>446</v>
       </c>
@@ -5293,7 +5310,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>448</v>
       </c>
@@ -5307,7 +5324,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>450</v>
       </c>
@@ -5321,7 +5338,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>452</v>
       </c>
@@ -5335,7 +5352,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" ht="176" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>454</v>
       </c>
@@ -5349,7 +5366,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>455</v>
       </c>
@@ -5363,7 +5380,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>457</v>
       </c>
@@ -5377,7 +5394,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>460</v>
       </c>
@@ -5391,7 +5408,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>462</v>
       </c>
@@ -5405,7 +5422,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>250</v>
       </c>
@@ -5419,7 +5436,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>464</v>
       </c>
@@ -5433,7 +5450,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>466</v>
       </c>
@@ -5444,7 +5461,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>468</v>
       </c>
@@ -5455,7 +5472,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>470</v>
       </c>
@@ -5466,7 +5483,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>473</v>
       </c>
@@ -5480,7 +5497,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>475</v>
       </c>
@@ -5494,7 +5511,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>477</v>
       </c>
@@ -5524,14 +5541,14 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5542,14 +5559,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>330</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>382</v>
       </c>
@@ -5563,7 +5580,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="112" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
@@ -5577,7 +5594,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>613</v>
       </c>
@@ -5588,7 +5605,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>616</v>
       </c>
@@ -5602,7 +5619,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>78</v>
       </c>
@@ -5616,7 +5633,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>618</v>
       </c>
@@ -5630,7 +5647,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="96" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>621</v>
       </c>
@@ -5644,7 +5661,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>308</v>
       </c>
@@ -5658,7 +5675,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>212</v>
       </c>
@@ -5672,7 +5689,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>529</v>
       </c>
@@ -5686,7 +5703,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>623</v>
       </c>
@@ -5700,7 +5717,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>219</v>
       </c>
@@ -5714,7 +5731,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>626</v>
       </c>
@@ -5725,7 +5742,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>628</v>
       </c>
@@ -5736,7 +5753,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>630</v>
       </c>
@@ -5747,7 +5764,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>632</v>
       </c>
@@ -5758,7 +5775,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="112" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>244</v>
       </c>
@@ -5772,7 +5789,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>473</v>
       </c>
@@ -5786,7 +5803,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>320</v>
       </c>
@@ -5800,14 +5817,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
         <v>635</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>638</v>
       </c>
@@ -5818,7 +5835,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>736</v>
       </c>
@@ -5828,19 +5845,18 @@
       <c r="D25" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5856,20 +5872,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C17929-D79D-43D8-8569-28DB1A88576D}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5880,14 +5896,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>641</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>642</v>
       </c>
@@ -5898,7 +5914,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
@@ -5912,7 +5928,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>714</v>
       </c>
@@ -5923,7 +5939,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>223</v>
       </c>
@@ -5934,7 +5950,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>645</v>
       </c>
@@ -5948,7 +5964,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>650</v>
       </c>
@@ -5959,7 +5975,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>648</v>
       </c>
@@ -5973,7 +5989,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>649</v>
       </c>
@@ -5987,7 +6003,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>651</v>
       </c>
@@ -5997,39 +6013,38 @@
       <c r="D12" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6046,18 +6061,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644112C0-7946-41CE-BC58-0BA5081A6081}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6068,14 +6083,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>791</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>769</v>
       </c>
@@ -6089,7 +6104,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>770</v>
       </c>
@@ -6100,7 +6115,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>772</v>
       </c>
@@ -6111,7 +6126,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>773</v>
       </c>
@@ -6122,7 +6137,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>305</v>
       </c>
@@ -6136,7 +6151,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>775</v>
       </c>
@@ -6147,7 +6162,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
@@ -6158,7 +6173,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="160" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>777</v>
       </c>
@@ -6169,7 +6184,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>778</v>
       </c>
@@ -6180,7 +6195,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>780</v>
       </c>
@@ -6194,7 +6209,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>781</v>
       </c>
@@ -6205,7 +6220,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>783</v>
       </c>
@@ -6216,7 +6231,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="160" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>60</v>
       </c>
@@ -6227,14 +6242,14 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>795</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="2:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>658</v>
       </c>
@@ -6245,7 +6260,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>657</v>
       </c>
@@ -6256,7 +6271,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>662</v>
       </c>
@@ -6267,7 +6282,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>660</v>
       </c>
@@ -6278,7 +6293,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>656</v>
       </c>
@@ -6289,7 +6304,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>661</v>
       </c>
@@ -6300,7 +6315,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>659</v>
       </c>
@@ -6328,17 +6343,17 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="38.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6364,7 +6379,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>738</v>
       </c>
@@ -6388,7 +6403,7 @@
       </c>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>737</v>
       </c>
@@ -6410,7 +6425,7 @@
       </c>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>674</v>
       </c>
@@ -6433,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>687</v>
       </c>
@@ -6454,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>693</v>
       </c>
@@ -6475,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>677</v>
       </c>
@@ -6496,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>675</v>
       </c>
@@ -6517,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>684</v>
       </c>
@@ -6538,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>695</v>
       </c>
@@ -6559,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>679</v>
       </c>
@@ -6580,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>698</v>
       </c>
@@ -6602,7 +6617,7 @@
       </c>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>722</v>
       </c>
@@ -6621,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>721</v>
       </c>
@@ -6640,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>335</v>
       </c>
@@ -6659,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>343</v>
       </c>
@@ -6679,7 +6694,7 @@
       </c>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>744</v>
       </c>
@@ -6703,7 +6718,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>113</v>
       </c>
@@ -6722,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>339</v>
       </c>
@@ -6741,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>341</v>
       </c>
@@ -6760,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>345</v>
       </c>
@@ -6779,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>699</v>
       </c>
@@ -6798,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>588</v>
       </c>
@@ -6818,7 +6833,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>704</v>
       </c>
@@ -6837,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>701</v>
       </c>
@@ -6856,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>703</v>
       </c>
@@ -6876,7 +6891,7 @@
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>706</v>
       </c>
@@ -6896,7 +6911,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>707</v>
       </c>
@@ -6916,7 +6931,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>708</v>
       </c>
@@ -6936,7 +6951,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>767</v>
       </c>
@@ -6956,7 +6971,7 @@
       </c>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>151</v>
       </c>
@@ -6976,7 +6991,7 @@
       </c>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>152</v>
       </c>
@@ -6996,7 +7011,7 @@
       </c>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>711</v>
       </c>
@@ -7015,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>716</v>
       </c>
@@ -7035,7 +7050,7 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>799</v>
       </c>
@@ -7054,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>714</v>
       </c>
@@ -7074,7 +7089,7 @@
       </c>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>713</v>
       </c>
@@ -7096,7 +7111,7 @@
       </c>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>636</v>
       </c>
@@ -7115,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>651</v>
       </c>
@@ -7137,7 +7152,7 @@
       </c>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
         <v>671</v>
       </c>
@@ -7157,7 +7172,7 @@
       </c>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
         <v>800</v>
       </c>
@@ -7178,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>642</v>
       </c>
@@ -7197,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>46</v>
       </c>
@@ -7216,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>223</v>
       </c>
@@ -7238,7 +7253,7 @@
       </c>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>645</v>
       </c>
@@ -7257,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>650</v>
       </c>
@@ -7279,7 +7294,7 @@
       </c>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>648</v>
       </c>
@@ -7298,7 +7313,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>649</v>
       </c>
@@ -7320,7 +7335,7 @@
       </c>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>638</v>
       </c>
@@ -7339,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>736</v>
       </c>
@@ -7358,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>658</v>
       </c>
@@ -7379,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>657</v>
       </c>
@@ -7398,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>662</v>
       </c>
@@ -7417,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>660</v>
       </c>
@@ -7436,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>656</v>
       </c>
@@ -7455,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>661</v>
       </c>
@@ -7474,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>659</v>
       </c>
@@ -7502,20 +7517,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9380B144-B454-4CF2-809E-56D588102B1A}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="83" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7526,14 +7541,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
@@ -7547,7 +7562,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="174" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="160" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
@@ -7558,7 +7573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
@@ -7572,7 +7587,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
@@ -7586,7 +7601,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
@@ -7600,7 +7615,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
@@ -7614,7 +7629,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
@@ -7628,7 +7643,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
@@ -7642,7 +7657,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
@@ -7656,7 +7671,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="174" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="176" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>60</v>
       </c>
@@ -7667,7 +7682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
@@ -7684,14 +7699,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>673</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>738</v>
       </c>
@@ -7701,9 +7716,8 @@
       <c r="D16" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>737</v>
       </c>
@@ -7714,7 +7728,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>674</v>
       </c>
@@ -7728,7 +7742,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>687</v>
       </c>
@@ -7742,7 +7756,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>693</v>
       </c>
@@ -7753,7 +7767,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>677</v>
       </c>
@@ -7764,7 +7778,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>675</v>
       </c>
@@ -7775,7 +7789,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>684</v>
       </c>
@@ -7786,7 +7800,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>695</v>
       </c>
@@ -7797,7 +7811,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>679</v>
       </c>
@@ -7807,9 +7821,8 @@
       <c r="D25" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>698</v>
       </c>
@@ -7837,14 +7850,14 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7855,14 +7868,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
@@ -7879,7 +7892,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7896,7 +7909,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
@@ -7913,7 +7926,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
@@ -7930,14 +7943,14 @@
         <v>813</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>101</v>
       </c>
@@ -7954,7 +7967,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>102</v>
       </c>
@@ -7971,7 +7984,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>104</v>
       </c>
@@ -7988,7 +8001,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>116</v>
       </c>
@@ -8002,7 +8015,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>105</v>
       </c>
@@ -8019,7 +8032,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>103</v>
       </c>
@@ -8036,14 +8049,14 @@
         <v>807</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
@@ -8057,14 +8070,14 @@
         <v>811</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>346</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>336</v>
       </c>
@@ -8075,14 +8088,14 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>335</v>
       </c>
@@ -8092,9 +8105,8 @@
       <c r="D20" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>343</v>
       </c>
@@ -8105,7 +8117,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>744</v>
       </c>
@@ -8121,7 +8133,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
@@ -8134,7 +8146,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>339</v>
       </c>
@@ -8147,7 +8159,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>341</v>
       </c>
@@ -8159,9 +8171,8 @@
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>345</v>
       </c>
@@ -8174,14 +8185,14 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -8208,15 +8219,15 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8227,14 +8238,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
@@ -8251,7 +8262,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
@@ -8268,7 +8279,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>76</v>
       </c>
@@ -8285,7 +8296,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
@@ -8302,7 +8313,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="160" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
@@ -8319,7 +8330,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>56</v>
       </c>
@@ -8336,7 +8347,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>87</v>
       </c>
@@ -8353,7 +8364,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
@@ -8370,7 +8381,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>91</v>
       </c>
@@ -8384,14 +8395,14 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>334</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>699</v>
       </c>
@@ -8402,7 +8413,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>588</v>
       </c>
@@ -8413,7 +8424,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>704</v>
       </c>
@@ -8424,7 +8435,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>701</v>
       </c>
@@ -8434,9 +8445,8 @@
       <c r="D17" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:4" ht="48" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>703</v>
       </c>
@@ -8464,14 +8474,14 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8482,14 +8492,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>128</v>
       </c>
@@ -8503,7 +8513,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>130</v>
       </c>
@@ -8517,7 +8527,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>133</v>
       </c>
@@ -8531,7 +8541,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>135</v>
       </c>
@@ -8545,7 +8555,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>138</v>
       </c>
@@ -8556,7 +8566,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>141</v>
       </c>
@@ -8570,7 +8580,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -8581,14 +8591,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>706</v>
       </c>
@@ -8599,7 +8609,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>767</v>
       </c>
@@ -8610,7 +8620,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>707</v>
       </c>
@@ -8621,7 +8631,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>708</v>
       </c>
@@ -8632,7 +8642,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>151</v>
       </c>
@@ -8643,7 +8653,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>152</v>
       </c>
@@ -8671,14 +8681,14 @@
       <selection activeCell="F75" sqref="F74:F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8689,14 +8699,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8710,7 +8720,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>153</v>
       </c>
@@ -8721,7 +8731,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>155</v>
       </c>
@@ -8735,7 +8745,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="128" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>158</v>
       </c>
@@ -8749,7 +8759,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>159</v>
       </c>
@@ -8763,7 +8773,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -8777,7 +8787,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>162</v>
       </c>
@@ -8791,7 +8801,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>164</v>
       </c>
@@ -8805,7 +8815,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="192" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>167</v>
       </c>
@@ -8816,7 +8826,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>168</v>
       </c>
@@ -8830,7 +8840,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>171</v>
       </c>
@@ -8841,7 +8851,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>173</v>
       </c>
@@ -8855,7 +8865,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>175</v>
       </c>
@@ -8869,7 +8879,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>177</v>
       </c>
@@ -8880,7 +8890,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>179</v>
       </c>
@@ -8891,7 +8901,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>181</v>
       </c>
@@ -8905,7 +8915,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="288" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>183</v>
       </c>
@@ -8919,7 +8929,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>102</v>
       </c>
@@ -8933,7 +8943,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>189</v>
       </c>
@@ -8944,7 +8954,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>191</v>
       </c>
@@ -8958,7 +8968,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>193</v>
       </c>
@@ -8972,7 +8982,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>195</v>
       </c>
@@ -8983,7 +8993,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>196</v>
       </c>
@@ -8997,7 +9007,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>199</v>
       </c>
@@ -9011,7 +9021,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>201</v>
       </c>
@@ -9025,7 +9035,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="240" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>202</v>
       </c>
@@ -9039,7 +9049,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>203</v>
       </c>
@@ -9050,7 +9060,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>204</v>
       </c>
@@ -9064,7 +9074,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>206</v>
       </c>
@@ -9078,7 +9088,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>104</v>
       </c>
@@ -9092,7 +9102,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>116</v>
       </c>
@@ -9106,7 +9116,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>210</v>
       </c>
@@ -9120,7 +9130,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>105</v>
       </c>
@@ -9134,7 +9144,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>212</v>
       </c>
@@ -9148,7 +9158,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>214</v>
       </c>
@@ -9162,7 +9172,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>216</v>
       </c>
@@ -9176,7 +9186,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>103</v>
       </c>
@@ -9190,7 +9200,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="335" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>218</v>
       </c>
@@ -9204,7 +9214,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>219</v>
       </c>
@@ -9218,7 +9228,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>221</v>
       </c>
@@ -9232,7 +9242,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" ht="208" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>86</v>
       </c>
@@ -9246,7 +9256,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>223</v>
       </c>
@@ -9257,7 +9267,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>225</v>
       </c>
@@ -9271,7 +9281,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="96" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>56</v>
       </c>
@@ -9285,7 +9295,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>228</v>
       </c>
@@ -9299,7 +9309,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>230</v>
       </c>
@@ -9313,7 +9323,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>232</v>
       </c>
@@ -9327,7 +9337,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" ht="224" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>237</v>
       </c>
@@ -9338,7 +9348,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>238</v>
       </c>
@@ -9349,7 +9359,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>240</v>
       </c>
@@ -9363,7 +9373,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" ht="176" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>242</v>
       </c>
@@ -9377,7 +9387,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" ht="128" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>244</v>
       </c>
@@ -9391,7 +9401,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>245</v>
       </c>
@@ -9405,7 +9415,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>247</v>
       </c>
@@ -9419,7 +9429,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>248</v>
       </c>
@@ -9433,7 +9443,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>250</v>
       </c>
@@ -9447,7 +9457,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>252</v>
       </c>
@@ -9458,7 +9468,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>253</v>
       </c>
@@ -9469,7 +9479,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>254</v>
       </c>
@@ -9480,7 +9490,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>256</v>
       </c>
@@ -9494,7 +9504,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" ht="335" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>258</v>
       </c>
@@ -9508,7 +9518,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>259</v>
       </c>
@@ -9519,7 +9529,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>261</v>
       </c>
@@ -9533,14 +9543,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="19" t="s">
         <v>330</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
     </row>
-    <row r="68" spans="2:6" ht="232" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" ht="240" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>331</v>
       </c>
@@ -9554,14 +9564,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="19" t="s">
         <v>710</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
     </row>
-    <row r="70" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>711</v>
       </c>
@@ -9571,9 +9581,8 @@
       <c r="D70" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>716</v>
       </c>
@@ -9584,7 +9593,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
         <v>799</v>
       </c>
@@ -9595,7 +9604,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
         <v>714</v>
       </c>
@@ -9606,7 +9615,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>223</v>
       </c>
@@ -9616,9 +9625,8 @@
       <c r="D74" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>650</v>
       </c>
@@ -9628,9 +9636,8 @@
       <c r="D75" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>713</v>
       </c>
@@ -9641,7 +9648,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
         <v>636</v>
       </c>
@@ -9652,7 +9659,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
         <v>651</v>
       </c>
@@ -9662,152 +9669,151 @@
       <c r="D78" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
@@ -9823,20 +9829,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BADB1F-254B-4B93-8938-752CBBBD7E1D}">
-  <dimension ref="B2:F40"/>
+  <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9847,14 +9853,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>291</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>292</v>
       </c>
@@ -9865,14 +9871,14 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>295</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>296</v>
       </c>
@@ -9886,7 +9892,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>299</v>
       </c>
@@ -9897,7 +9903,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>301</v>
       </c>
@@ -9908,7 +9914,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>303</v>
       </c>
@@ -9922,7 +9928,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>305</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>307</v>
       </c>
@@ -9947,7 +9953,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="224" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>202</v>
       </c>
@@ -9958,7 +9964,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="203" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="192" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
@@ -9969,7 +9975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>308</v>
       </c>
@@ -9983,7 +9989,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="96" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>310</v>
       </c>
@@ -9997,7 +10003,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>208</v>
       </c>
@@ -10011,7 +10017,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>311</v>
       </c>
@@ -10022,7 +10028,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>313</v>
       </c>
@@ -10036,7 +10042,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>315</v>
       </c>
@@ -10050,7 +10056,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>317</v>
       </c>
@@ -10064,7 +10070,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="192" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>60</v>
       </c>
@@ -10075,7 +10081,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>318</v>
       </c>
@@ -10086,7 +10092,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>320</v>
       </c>
@@ -10100,14 +10106,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>564</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
     </row>
-    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>565</v>
       </c>
@@ -10118,7 +10124,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>567</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>569</v>
       </c>
@@ -10140,7 +10146,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>571</v>
       </c>
@@ -10151,7 +10157,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>573</v>
       </c>
@@ -10162,7 +10168,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>575</v>
       </c>
@@ -10173,7 +10179,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>577</v>
       </c>
@@ -10184,7 +10190,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>579</v>
       </c>
@@ -10195,7 +10201,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="96" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>581</v>
       </c>
@@ -10206,7 +10212,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>586</v>
       </c>
@@ -10217,7 +10223,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>583</v>
       </c>
@@ -10231,14 +10237,14 @@
         <v>805</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
         <v>720</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
     </row>
-    <row r="37" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>829</v>
       </c>
@@ -10248,9 +10254,8 @@
       <c r="D37" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>722</v>
       </c>
@@ -10261,7 +10266,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>721</v>
       </c>
@@ -10272,7 +10277,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>827</v>
       </c>
@@ -10282,7 +10287,17 @@
       <c r="D40" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>832</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10303,14 +10318,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10321,14 +10336,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>589</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>368</v>
       </c>
@@ -10342,7 +10357,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>590</v>
       </c>
@@ -10356,7 +10371,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>592</v>
       </c>
@@ -10367,7 +10382,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>594</v>
       </c>
@@ -10378,7 +10393,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>596</v>
       </c>
@@ -10389,7 +10404,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>598</v>
       </c>
@@ -10400,7 +10415,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>600</v>
       </c>
@@ -10411,7 +10426,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>602</v>
       </c>
@@ -10422,7 +10437,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -10446,14 +10461,14 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10464,14 +10479,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>606</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>607</v>
       </c>
@@ -10488,7 +10503,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>609</v>
       </c>
@@ -10499,52 +10514,52 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -10558,21 +10573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA26215CC14A384E952D7804EF3A35C6" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3fe7b726a68d28e34c1e775eaa3d86db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0e5ba82-9edd-4543-a5cd-cb26bbb31b7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b628dd1062c29b46bae2ec7324e32ac9" ns3:_="">
     <xsd:import namespace="e0e5ba82-9edd-4543-a5cd-cb26bbb31b7f"/>
@@ -10722,31 +10722,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D00A95F-DBEE-45E3-8E56-9048D2CE361C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e0e5ba82-9edd-4543-a5cd-cb26bbb31b7f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94445652-C359-4B47-A452-B44C34EEF9E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{929E7DC8-42F3-4047-8573-C4BD52EF6887}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10762,4 +10753,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94445652-C359-4B47-A452-B44C34EEF9E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D00A95F-DBEE-45E3-8E56-9048D2CE361C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e0e5ba82-9edd-4543-a5cd-cb26bbb31b7f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>